--- a/fail.xlsx
+++ b/fail.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,185 +436,130 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>before</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aspects</t>
+          <t>after</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I appreciate how the staff walked me through setting up my new device.</t>
+          <t>{'staff': {'ADJ': [[['helpful'], 'staff were helpful.'], [['patient'], 'staff were patient.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{0: [('I', 'appreciate walked me', ('appreciate', 'walk'), 'VERB'), ('I', 'appreciate walked through setting new device', ('appreciate', 'walk'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [[['helpful'], 'staff were helpful.', 'Neutral'], [['patient'], 'staff were patient.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>They offer amazing deals on phones, I couldn’t resist upgrading.</t>
+          <t>{'process': {'ADJ': [[['smooth'], 'process was smooth.'], [['quick'], 'process was quick.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{0: [('I', 'could not resist upgrading', ('resist',), 'VERB'), ('I', 'could not resist offer amazing deals on phones', ('resist', 'offer'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'process': {'data': {'ADJ': [[['smooth'], 'process was smooth.', 'Positive'], [['quick'], 'process was quick.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Upgrading my phone was a breeze thanks to their professional service.</t>
+          <t>{'selection': {'ADJ': [[['amazing'], 'selection is amazing.']], 'VERB': [], 'OTHER': []}, 'price': {'ADJ': [[['competitive'], 'price are competitive.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'selection': {'data': {'ADJ': [[['amazing'], 'selection is amazing.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}, 'price': {'data': {'ADJ': [[['competitive'], 'price are competitive.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I got a really good trade-in deal on my old phone.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['appreciate', 'walk'], 'I appreciate walked me.'], [['appreciate', 'walk'], 'I appreciate walked through setting new device.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{0: [('I', 'got good deal on old phone', ('get',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['appreciate', 'walk'], 'I appreciate walked me.', 'Neutral'], [['appreciate', 'walk'], 'I appreciate walked through setting new device.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Very professional and friendly service, I’m super satisfied!</t>
+          <t>{'question': {'ADJ': [], 'VERB': [[['answer'], 'question answered.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{0: [('I', 'm satisfied', ('m',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'question': {'data': {'ADJ': [], 'VERB': [[['answer'], 'question answered.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>They helped me choose a phone within my budget, which I really appreciated.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['resist'], 'I could not resist upgrading.'], [['resist', 'offer'], 'I could not resist offer amazing deals on phones.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{0: [('they', 'helped choose within budget', ('help', 'choose'), 'VERB'), ('they', 'helped choose phone', ('help', 'choose'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['resist'], 'I could not resist upgrading.', 'Neutral'], [['resist', 'offer'], 'I could not resist offer amazing deals on phones.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I found exactly what I needed, and they helped me get a great deal.</t>
+          <t>{'phones issue': {'ADJ': [], 'VERB': [[['fix'], 'technician fixed phones issue.']], 'OTHER': []}, 'technician': {'ADJ': [], 'VERB': [[['fix'], 'technician fixed phones issue.'], [['fix'], 'technician fixed faster.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{0: [('I', 'found needed what', ('find', 'need'), 'VERB'), ('they', 'helped get great deal', ('help', 'get'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'phones issue': {'data': {'ADJ': [], 'VERB': [[['fix'], 'technician fixed phones issue.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}, 'technician': {'data': {'ADJ': [], 'VERB': [[['fix'], 'technician fixed phones issue.', 'Positive'], [['fix'], 'technician fixed faster.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The phone I bought here is working perfectly, couldn’t be happier.</t>
+          <t>{'experience': {'ADJ': [], 'VERB': [[['know'], 'experience really know stuff.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'experience': {'data': {'ADJ': [], 'VERB': [[['know'], 'experience really know stuff.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>They were super quick in setting up my phone, I was out of there in no time.</t>
+          <t>{'variety': {'ADJ': [[['impressive'], 'variety was impressive.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>{0: [('they', 'were quick in setting phone', ('quick',), 'ADJ')]}</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'variety': {'data': {'ADJ': [[['impressive'], 'variety was impressive.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Always come here for upgrades, they never disappoint!</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -623,372 +568,262 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Best pricing for phone plans, they helped me save a lot!</t>
+          <t>{'staff': {'ADJ': [[['knowledgeable'], 'staff was knowledgeable.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>{0: [('they', 'helped save lot', ('help', 'save'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [[['knowledgeable'], 'staff was knowledgeable.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I always recommend this store to friends and family, they never fail to impress.</t>
+          <t>{'price': {'ADJ': [[['reasonable'], 'price were reasonable.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{0: [('they', 'not fail recommend to friends', ('fail', 'recommend'), 'VERB'), ('they', 'not fail recommend store', ('fail', 'recommend'), 'VERB'), ('they', 'not fail recommend to family', ('fail', 'recommend'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'price': {'data': {'ADJ': [[['reasonable'], 'price were reasonable.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I appreciate how they were able to fix my phone on the same day.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['go'], 'staff really went mile.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{0: [('I', 'appreciate were able', ('appreciate', 'be'), 'VERB'), ('they', 'were able', ('able',), 'ADJ')]}</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['go'], 'staff really went mile.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Got a great deal on my new phone and an awesome case as well!</t>
+          <t>{'service': {'ADJ': [[['excellent'], 'service be excellent.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'service': {'data': {'ADJ': [[['excellent'], 'service be excellent.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I had a great experience with their trade-in program.</t>
+          <t>{'deal': {'ADJ': [[['friendly'], 'deal was friendly.']], 'VERB': [], 'OTHER': []}, 'staff': {'ADJ': [[['friendly'], 'staff was friendly.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{0: [('I', 'had great experience with program', ('have',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'deal': {'data': {'ADJ': [[['friendly'], 'deal was friendly.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}, 'staff': {'data': {'ADJ': [[['friendly'], 'staff was friendly.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>They even helped me transfer all my contacts and data without extra charge.</t>
+          <t>{'buying': {'ADJ': [], 'VERB': [], 'OTHER': [[['experience'], 'buying be experience.']]}, 'fixing': {'ADJ': [], 'VERB': [], 'OTHER': [[['experience'], 'fixing be experience.']]}}</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{0: [('they', 'even helped transfer without extra charge', ('help', 'transfer'), 'VERB'), ('they', 'even helped transfer data', ('help', 'transfer'), 'VERB'), ('they', 'even helped transfer contacts', ('help', 'transfer'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'buying': {'data': {'ADJ': [], 'VERB': [], 'OTHER': [[['experience'], 'buying be experience.', 'Neutral']]}, 'sentiment': 'Neutral'}, 'fixing': {'data': {'ADJ': [], 'VERB': [], 'OTHER': [[['experience'], 'fixing be experience.', 'Neutral']]}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>They fixed my screen perfectly and even gave me a discount on the repair.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['get'], 'I got good deal on old phone.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{0: [('they', 'fixed perfectly', ('fix',), 'VERB'), ('they', 'fixed screen', ('fix',), 'VERB'), ('they', 'even gave discount on repair', ('give',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['get'], 'I got good deal on old phone.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>They offer fantastic promotions and discounts!</t>
+          <t>{'service': {'ADJ': [[['quick'], 'service are quick.'], [['reliable'], 'service are reliable.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{0: [('they', 'offer discounts', ('offer',), 'VERB'), ('they', 'offer fantastic promotions', ('offer',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'service': {'data': {'ADJ': [[['quick'], 'service are quick.', 'Positive'], [['reliable'], 'service are reliable.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>They resolved my issue very quickly and professionally.</t>
+          <t>{'phone': {'ADJ': [[['helpful'], 'staff was helpful in setting phone.']], 'VERB': [], 'OTHER': []}, 'staff': {'ADJ': [[['helpful'], 'staff was helpful in setting phone.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{0: [('they', 'resolved professionally', ('resolve',), 'VERB'), ('they', 'resolved very quickly', ('resolve',), 'VERB'), ('they', 'resolved issue', ('resolve',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'phone': {'data': {'ADJ': [[['helpful'], 'staff was helpful in setting phone.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}, 'staff': {'data': {'ADJ': [[['helpful'], 'staff was helpful in setting phone.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Highly recommend this store if you’re looking for good deals on phones!</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['m'], 'I m satisfied.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{0: [('you', 're looking for good deals', ('look',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['m'], 'I m satisfied.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I always leave this store feeling like I made the right purchase.</t>
+          <t>{'staff': {'ADJ': [[['patient'], 'staff was patient with questions.']], 'VERB': [], 'OTHER': []}, 'variety': {'ADJ': [[['patient'], 'variety was patient with questions.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{0: [('I', 'made right purchase', ('make',), 'VERB'), ('I', 'always leave store', ('leave',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [[['patient'], 'staff was patient with questions.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}, 'variety': {'data': {'ADJ': [[['patient'], 'variety was patient with questions.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I received excellent advice from the sales team, they really know their products.</t>
+          <t>{'process': {'ADJ': [[['simple'], 'process was simple.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{0: [('they', 'really know received excellent advice from sales team', ('know', 'receive'), 'VERB'), ('they', 'really know products', ('know',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'process': {'data': {'ADJ': [[['simple'], 'process was simple.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bought a phone here that stopped working within a week, very disappointing.</t>
+          <t>{'store': {'ADJ': [], 'VERB': [[['help', 'choose'], 'they helped choose within budget.'], [['help', 'choose'], 'they helped choose phone.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['help', 'choose'], 'they helped choose within budget.', 'Neutral'], [['help', 'choose'], 'they helped choose phone.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>They charged me extra for services I didn’t need, felt like a scam.</t>
+          <t>{'phone': {'ADJ': [], 'VERB': [[['fix'], 'phone was fixed in minutes.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{0: [('they', 'felt like scam', ('feel',), 'VERB'), ('they', 'charged me', ('charge',), 'VERB'), ('they', 'charged extra for services', ('charge',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'phone': {'data': {'ADJ': [], 'VERB': [[['fix'], 'phone was fixed in minutes.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phone repairs took way too long, I had to come back multiple times.</t>
+          <t>{'service': {'ADJ': [[['outstanding'], 'service is outstanding.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{0: [('I', 'had took too long', ('have', 'take'), 'VERB'), ('I', 'had took way', ('have', 'take'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'service': {'data': {'ADJ': [[['outstanding'], 'service is outstanding.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I bought a phone, but they didn’t inform me of all the hidden fees.</t>
+          <t>{'store': {'ADJ': [], 'VERB': [[['hand'], 'store hands.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{0: [('they', 'did not inform me', ('inform',), 'VERB'), ('they', 'did not inform of hidden fees', ('inform',), 'VERB'), ('I', 'bought phone', ('buy',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['hand'], 'store hands.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I had to return a faulty phone twice before they finally gave me a refund.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['make'], 'staff made.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{0: [('they', 'twice gave refund', ('give',), 'VERB'), ('I', 'had to return faulty phone', ('have', 'return'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['make'], 'staff made.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Very disorganized, I waited forever just to get a simple issue resolved.</t>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['find', 'need'], 'I found needed what.']], 'OTHER': []}, 'store': {'ADJ': [], 'VERB': [[['help', 'get'], 'they helped get great deal.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{0: [('I', 'very disorganized waited forever', ('wait',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['find', 'need'], 'I found needed what.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'store': {'data': {'ADJ': [], 'VERB': [[['help', 'get'], 'they helped get great deal.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The phone I purchased here was overpriced compared to other stores.</t>
+          <t>{'warranty service': {'ADJ': [], 'VERB': [[['have'], 'store has fantastic warranty service.']], 'OTHER': []}, 'store': {'ADJ': [], 'VERB': [[['have'], 'store has fantastic warranty service.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'warranty service': {'data': {'ADJ': [], 'VERB': [[['have'], 'store has fantastic warranty service.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}, 'store': {'data': {'ADJ': [], 'VERB': [[['have'], 'store has fantastic warranty service.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>They refused to honor the promotion I came in for, very misleading.</t>
+          <t>{'staff': {'ADJ': [[['informative'], 'staff was informative.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{0: [('they', 'refused to honor promotion', ('refuse', 'honor'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'staff': {'data': {'ADJ': [[['informative'], 'staff was informative.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I felt pressured to buy accessories I didn’t need.</t>
+          <t>{'variety': {'ADJ': [[['excellent'], 'variety be excellent.']], 'VERB': [], 'OTHER': []}, 'store': {'ADJ': [[['excellent'], 'store be excellent.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{0: [('I', 'felt pressured', ('feel',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'variety': {'data': {'ADJ': [[['excellent'], 'variety be excellent.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}, 'store': {'data': {'ADJ': [[['excellent'], 'store be excellent.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>They upsold me on a phone plan I didn’t need, very deceptive.</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>{0: [('they', 'upsold on phone plan', ('upsold',), 'VERB'), ('they', 'upsold me', ('upsold',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -997,32 +832,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>They didn’t apply the discount I was promised.</t>
+          <t>{'store': {'ADJ': [[['quick'], 'they were quick in setting phone.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{0: [('they', 'did not apply discount', ('apply',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'store': {'data': {'ADJ': [[['quick'], 'they were quick in setting phone.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>They kept trying to sell me more expensive phones when I clearly stated my budget.</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>{0: [('they', 'kept trying', ('keep', 'try'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
@@ -1031,117 +856,778 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>I had to call multiple times just to get a response, very unprofessional.</t>
+          <t>{'layout': {'ADJ': [[['easy'], 'layout is easy.']], 'VERB': [], 'OTHER': []}, 'staff': {'ADJ': [[['ready'], 'staff are ready.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{0: [('I', 'had to call multiple times', ('have', 'call'), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'layout': {'data': {'ADJ': [[['easy'], 'layout is easy.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}, 'staff': {'data': {'ADJ': [[['ready'], 'staff are ready.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>They didn’t explain anything clearly and rushed me through the purchase.</t>
+          <t>{'store': {'ADJ': [], 'VERB': [[['help', 'save'], 'they helped save lot.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{0: [('they', 'rushed me', ('rush',), 'VERB'), ('they', 'did not explain anything', ('explain',), 'VERB'), ('they', 'did not explain clearly', ('explain',), 'VERB'), ('they', 'rushed through purchase', ('rush',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['help', 'save'], 'they helped save lot.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>They didn’t even have the phone I wanted in stock after promising me it was available.</t>
+          <t>{'service': {'ADJ': [], 'VERB': [[['provide'], 'one provides best service.']], 'OTHER': []}, 'one': {'ADJ': [], 'VERB': [[['provide'], 'one provides best service.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{0: [('it', 'was available', ('available',), 'ADJ'), ('they', 'did not even have after promising me', ('have',), 'VERB'), ('they', 'did not even have phone', ('have',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'service': {'data': {'ADJ': [], 'VERB': [[['provide'], 'one provides best service.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}, 'one': {'data': {'ADJ': [], 'VERB': [[['provide'], 'one provides best service.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terrible follow-up, they lost my repair order, and I had to start over.</t>
+          <t>{'service': {'ADJ': [[['notch'], 'service is notch.']], 'VERB': [], 'OTHER': [[['notch'], 'service is notch.']]}}</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{0: [('they', 'lost repair order', ('lose',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'service': {'data': {'ADJ': [[['notch'], 'service is notch.', 'Neutral']], 'VERB': [], 'OTHER': [[['notch'], 'service is notch.', 'Neutral']]}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I felt overcharged for a simple screen repair.</t>
+          <t>{'store': {'ADJ': [], 'VERB': [[['fail', 'recommend'], 'they not fail recommend to friends.'], [['fail', 'recommend'], 'they not fail recommend store.'], [['fail', 'recommend'], 'they not fail recommend to family.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{0: [('I', 'felt overcharged', ('feel',), 'VERB')]}</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['fail', 'recommend'], 'they not fail recommend to friends.', 'Positive'], [['fail', 'recommend'], 'they not fail recommend store.', 'Positive'], [['fail', 'recommend'], 'they not fail recommend to family.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bought a refurbished phone that had several issues they didn’t disclose.</t>
+          <t>{'time': {'ADJ': [], 'VERB': [[['take'], 'staff took time.']], 'OTHER': []}, 'staff': {'ADJ': [], 'VERB': [[['take'], 'staff took time.']], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>{}</t>
+          <t>{'time': {'data': {'ADJ': [], 'VERB': [[['take'], 'staff took time.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'staff': {'data': {'ADJ': [], 'VERB': [[['take'], 'staff took time.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>I’m extremely disappointed, will not be coming back here again.</t>
+          <t>{'place': {'ADJ': [[['amazing'], 'place be amazing.']], 'VERB': [], 'OTHER': []}}</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{0: []}</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>{'place': {'data': {'ADJ': [[['amazing'], 'place be amazing.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>{'plan': {'ADJ': [[['worth'], 'plan is worth.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{'plan': {'data': {'ADJ': [[['worth'], 'plan is worth.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['appreciate', 'be'], 'I appreciate were able.']], 'OTHER': []}, 'store': {'ADJ': [[['able'], 'they were able.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['appreciate', 'be'], 'I appreciate were able.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}, 'store': {'data': {'ADJ': [[['able'], 'they were able.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [[['accommodating'], 'staff was accommodating.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [[['accommodating'], 'staff was accommodating.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['have'], 'I had great experience with program.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['have'], 'I had great experience with program.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>{'service': {'ADJ': [[['quick'], 'service was quick.'], [['efficient'], 'service was efficient.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>{'service': {'data': {'ADJ': [[['quick'], 'service was quick.', 'Positive'], [['efficient'], 'service was efficient.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['help', 'transfer'], 'they even helped transfer without extra charge.'], [['help', 'transfer'], 'they even helped transfer data.'], [['help', 'transfer'], 'they even helped transfer contacts.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['help', 'transfer'], 'they even helped transfer without extra charge.', 'Neutral'], [['help', 'transfer'], 'they even helped transfer data.', 'Neutral'], [['help', 'transfer'], 'they even helped transfer contacts.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>{'phone': {'ADJ': [], 'VERB': [[['work'], 'phone has working flawlessly.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>{'phone': {'data': {'ADJ': [], 'VERB': [[['work'], 'phone has working flawlessly.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['fix'], 'they fixed perfectly.'], [['fix'], 'they fixed screen.'], [['give'], 'they even gave discount on repair.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['fix'], 'they fixed perfectly.', 'Positive'], [['fix'], 'they fixed screen.', 'Positive'], [['give'], 'they even gave discount on repair.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [[['reliable'], 'this is reliable.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [[['reliable'], 'this is reliable.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['offer'], 'they offer discounts.'], [['offer'], 'they offer fantastic promotions.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['offer'], 'they offer discounts.', 'Neutral'], [['offer'], 'they offer fantastic promotions.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>{'service': {'ADJ': [[['great'], 'service be great.']], 'VERB': [], 'OTHER': [[['phone'], 'service be phone.']]}, 'selection': {'ADJ': [[['great'], 'selection be great.']], 'VERB': [], 'OTHER': [[['phone'], 'selection be phone.']]}}</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{'service': {'data': {'ADJ': [[['great'], 'service be great.', 'Positive']], 'VERB': [], 'OTHER': [[['phone'], 'service be phone.', 'Neutral']]}, 'sentiment': 'Neutral'}, 'selection': {'data': {'ADJ': [[['great'], 'selection be great.', 'Positive']], 'VERB': [], 'OTHER': [[['phone'], 'selection be phone.', 'Neutral']]}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['resolve'], 'they resolved professionally.'], [['resolve'], 'they resolved very quickly.'], [['resolve'], 'they resolved issue.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['resolve'], 'they resolved professionally.', 'Positive'], [['resolve'], 'they resolved very quickly.', 'Positive'], [['resolve'], 'they resolved issue.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [[['organize'], 'store is organized.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [[['organize'], 'store is organized.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['look'], 'you re looking for good deals.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['look'], 'you re looking for good deals.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['make'], 'I made right purchase.'], [['leave'], 'I always leave store.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['make'], 'I made right purchase.', 'Positive'], [['leave'], 'I always leave store.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['know', 'receive'], 'they really know received excellent advice from sales team.'], [['know'], 'they really know products.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['know', 'receive'], 'they really know received excellent advice from sales team.', 'Positive'], [['know'], 'they really know products.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>{'phone': {'ADJ': [], 'VERB': [[['look'], 'phone looks new.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{'phone': {'data': {'ADJ': [], 'VERB': [[['look'], 'phone looks new.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [[['apologetic'], 'staff was not apologetic.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [[['apologetic'], 'staff was not apologetic.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>{'selection': {'ADJ': [[['limited'], 'selection is limited.']], 'VERB': [], 'OTHER': []}, 'price': {'ADJ': [[['high'], 'price are high.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>{'selection': {'data': {'ADJ': [[['limited'], 'selection is limited.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}, 'price': {'data': {'ADJ': [[['high'], 'price are high.', 'Positive']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>{'one': {'ADJ': [], 'VERB': [[['seem', 'be'], 'one seemed is poor.']], 'OTHER': []}, 'service': {'ADJ': [[['poor'], 'service is poor.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>{'one': {'data': {'ADJ': [], 'VERB': [[['seem', 'be'], 'one seemed is poor.', 'Negative']], 'OTHER': []}, 'sentiment': 'Negative'}, 'service': {'data': {'ADJ': [[['poor'], 'service is poor.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>{'phone': {'ADJ': [[['defective'], 'phone was defective.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>{'phone': {'data': {'ADJ': [[['defective'], 'phone was defective.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [[['rude'], 'staff was rude.'], [['unhelpful'], 'staff was unhelpful.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [[['rude'], 'staff was rude.', 'Negative'], [['unhelpful'], 'staff was unhelpful.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['feel'], 'they felt like scam.'], [['charge'], 'they charged me.'], [['charge'], 'they charged extra for services.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['feel'], 'they felt like scam.', 'Neutral'], [['charge'], 'they charged me.', 'Neutral'], [['charge'], 'they charged extra for services.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['have', 'take'], 'I had took too long.'], [['have', 'take'], 'I had took way.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['have', 'take'], 'I had took too long.', 'Negative'], [['have', 'take'], 'I had took way.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['inform'], 'they did not inform me.'], [['inform'], 'they did not inform of hidden fees.']], 'OTHER': []}, 'staff': {'ADJ': [], 'VERB': [[['buy'], 'I bought phone.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['inform'], 'they did not inform me.', 'Neutral'], [['inform'], 'they did not inform of hidden fees.', 'Negative']], 'OTHER': []}, 'sentiment': 'Negative'}, 'staff': {'data': {'ADJ': [], 'VERB': [[['buy'], 'I bought phone.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['seem'], 'staff seemed.'], [['give'], 'staff gave incorrect information about phone plan.']], 'OTHER': []}, 'phone plan': {'ADJ': [], 'VERB': [[['give'], 'staff gave incorrect information about phone plan.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['seem'], 'staff seemed.', 'Neutral'], [['give'], 'staff gave incorrect information about phone plan.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'phone plan': {'data': {'ADJ': [], 'VERB': [[['give'], 'staff gave incorrect information about phone plan.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>{'warranty': {'ADJ': [[['useless'], 'warranty is useless.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{'warranty': {'data': {'ADJ': [[['useless'], 'warranty is useless.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['give'], 'they twice gave refund.']], 'OTHER': []}, 'staff': {'ADJ': [], 'VERB': [[['have', 'return'], 'I had to return faulty phone.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['give'], 'they twice gave refund.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'staff': {'data': {'ADJ': [], 'VERB': [[['have', 'return'], 'I had to return faulty phone.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['wait'], 'I very disorganized waited forever.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['wait'], 'I very disorganized waited forever.', 'Positive']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['refuse', 'honor'], 'they refused to honor promotion.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['refuse', 'honor'], 'they refused to honor promotion.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['feel'], 'I felt pressured.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['feel'], 'I felt pressured.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>{'repair': {'ADJ': [], 'VERB': [[['do'], 'repair was done poorly.']], 'OTHER': []}, 'phone': {'ADJ': [], 'VERB': [[['break'], 'phone broke within week.'], [['break'], 'phone broke again.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>{'repair': {'data': {'ADJ': [], 'VERB': [[['do'], 'repair was done poorly.', 'Negative']], 'OTHER': []}, 'sentiment': 'Negative'}, 'phone': {'data': {'ADJ': [], 'VERB': [[['break'], 'phone broke within week.', 'Neutral'], [['break'], 'phone broke again.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>{'service': {'ADJ': [[['slow'], 'service was slow.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>{'service': {'data': {'ADJ': [[['slow'], 'service was slow.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>{'phone': {'ADJ': [], 'VERB': [[['work'], 'phone was working after repair.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>{'phone': {'data': {'ADJ': [], 'VERB': [[['work'], 'phone was working after repair.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>{'same issue': {'ADJ': [], 'VERB': [[['have'], 'phone still has same issue after getting.']], 'OTHER': []}, 'phone': {'ADJ': [], 'VERB': [[['have'], 'phone still has same issue after getting.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>{'same issue': {'data': {'ADJ': [], 'VERB': [[['have'], 'phone still has same issue after getting.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'phone': {'data': {'ADJ': [], 'VERB': [[['have'], 'phone still has same issue after getting.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['upsold'], 'they upsold on phone plan.'], [['upsold'], 'they upsold me.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['upsold'], 'they upsold on phone plan.', 'Neutral'], [['upsold'], 'they upsold me.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [[['unprofessional'], 'staff was unprofessional.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [[['unprofessional'], 'staff was unprofessional.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>{'policy': {'ADJ': [[['awful'], 'policy is awful.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>{'policy': {'data': {'ADJ': [[['awful'], 'policy is awful.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['apply'], 'they did not apply discount.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['apply'], 'they did not apply discount.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [[['messy'], 'store was messy.'], [['understaffed'], 'store was understaffed.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [[['messy'], 'store was messy.', 'Negative'], [['understaffed'], 'store was understaffed.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>{'warranty': {'ADJ': [], 'VERB': [[['expire'], 'warranty just expired.']], 'OTHER': []}, 'phone': {'ADJ': [], 'VERB': [[['break'], 'phone broke.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>{'warranty': {'data': {'ADJ': [], 'VERB': [[['expire'], 'warranty just expired.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'phone': {'data': {'ADJ': [], 'VERB': [[['break'], 'phone broke.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['keep', 'try'], 'they kept trying.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['keep', 'try'], 'they kept trying.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>{'job': {'ADJ': [[['incomplete'], 'job was incomplete.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>{'job': {'data': {'ADJ': [[['incomplete'], 'job was incomplete.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>{'representative': {'ADJ': [[['rude'], 'representative were rude on phone.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>{'representative': {'data': {'ADJ': [[['rude'], 'representative were rude on phone.', 'Negative']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['have', 'call'], 'I had to call multiple times.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['have', 'call'], 'I had to call multiple times.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['rush'], 'they rushed me.'], [['explain'], 'they did not explain anything.'], [['explain'], 'they did not explain clearly.'], [['rush'], 'they rushed through purchase.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['rush'], 'they rushed me.', 'Neutral'], [['explain'], 'they did not explain anything.', 'Neutral'], [['explain'], 'they did not explain clearly.', 'Positive'], [['rush'], 'they rushed through purchase.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>{'support': {'ADJ': [[['non'], 'support is non.']], 'VERB': [], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>{'support': {'data': {'ADJ': [[['non'], 'support is non.', 'Neutral']], 'VERB': [], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>{'return window': {'ADJ': [], 'VERB': [[['stop', 'work'], 'phone stopped working outside return window.']], 'OTHER': []}, 'phone': {'ADJ': [], 'VERB': [[['stop', 'work'], 'phone stopped working outside return window.'], [['stop'], 'phone stopped quality.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>{'return window': {'data': {'ADJ': [], 'VERB': [[['stop', 'work'], 'phone stopped working outside return window.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}, 'phone': {'data': {'ADJ': [], 'VERB': [[['stop', 'work'], 'phone stopped working outside return window.', 'Neutral'], [['stop'], 'phone stopped quality.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [[['chaotic'], 'store was chaotic.']], 'VERB': [], 'OTHER': [[['staff'], 'store was with unhelpful staff.'], [['lines'], 'store was with long lines.']]}, 'staff': {'ADJ': [], 'VERB': [], 'OTHER': [[['staff'], 'store was with unhelpful staff.']]}, 'long lines': {'ADJ': [], 'VERB': [], 'OTHER': [[['lines'], 'store was with long lines.']]}}</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [[['chaotic'], 'store was chaotic.', 'Neutral']], 'VERB': [], 'OTHER': [[['staff'], 'store was with unhelpful staff.', 'Neutral'], [['lines'], 'store was with long lines.', 'Negative']]}, 'sentiment': 'Negative'}, 'staff': {'data': {'ADJ': [], 'VERB': [], 'OTHER': [[['staff'], 'store was with unhelpful staff.', 'Neutral']]}, 'sentiment': 'Neutral'}, 'long lines': {'data': {'ADJ': [], 'VERB': [], 'OTHER': [[['lines'], 'store was with long lines.', 'Negative']]}, 'sentiment': 'Negative'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['have'], 'they did not even have after promising me.'], [['have'], 'they did not even have phone.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['have'], 'they did not even have after promising me.', 'Positive'], [['have'], 'they did not even have phone.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Positive'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>{'store': {'ADJ': [], 'VERB': [[['lose'], 'they lost repair order.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{'store': {'data': {'ADJ': [], 'VERB': [[['lose'], 'they lost repair order.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>{'staff': {'ADJ': [], 'VERB': [[['feel'], 'I felt overcharged.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{'staff': {'data': {'ADJ': [], 'VERB': [[['feel'], 'I felt overcharged.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>{'technician': {'ADJ': [], 'VERB': [[['damage'], 'technician damaged during repair.'], [['damage'], 'technician damaged phone.']], 'OTHER': []}}</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{'technician': {'data': {'ADJ': [], 'VERB': [[['damage'], 'technician damaged during repair.', 'Neutral'], [['damage'], 'technician damaged phone.', 'Neutral']], 'OTHER': []}, 'sentiment': 'Neutral'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
